--- a/NOvember .xlsx
+++ b/NOvember .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganesh/Documents/crop-yield-prediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganesh/Developer/gnevercodesz/crop-yield-prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0659774-8ADC-1E45-AE0D-EE660FE850CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD288D13-C5B9-8A49-B5D5-F5AF16D271A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{72F4AC67-8DCB-A24B-A143-283959F86AB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t xml:space="preserve">expenses </t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">tejesh 15 dollars paid </t>
+  </si>
+  <si>
+    <t>hasfha</t>
   </si>
 </sst>
 </file>
@@ -265,9 +268,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +308,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -411,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B033AD4-F81F-A34A-A4B4-DF433EA21D63}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,6 +588,9 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
